--- a/08-物料业务数据维护报表.xlsx
+++ b/08-物料业务数据维护报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61251BB7-45F2-4C92-A8DC-8FB5919798C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD120C0D-D780-4224-B5DF-7CECB7F6B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>物料类型</t>
   </si>
@@ -208,6 +208,9 @@
     <t>特殊采购成本核算</t>
   </si>
   <si>
+    <t>成本核算批量</t>
+  </si>
+  <si>
     <t>利润中心</t>
   </si>
   <si>
@@ -223,154 +226,271 @@
     <t/>
   </si>
   <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z00001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>300041</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>6146</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>300043</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>12334</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>12412</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>3002</t>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ZRVM</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>NORM</t>
+  </si>
+  <si>
+    <t>库存地点1</t>
+  </si>
+  <si>
+    <t>外部仓储地点</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>库存地点3</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>PD物料需求计划</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>1 独立</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>WB</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Z00001</t>
-  </si>
-  <si>
-    <t>300021</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t>7900</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>支</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>张</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>NORM</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ZORM</t>
-  </si>
-  <si>
-    <t>库存点</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>PD物料需求计划</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>Z013</t>
-  </si>
-  <si>
-    <t>0123456789336</t>
-  </si>
-  <si>
-    <t>ceshi666</t>
-  </si>
-  <si>
-    <t>MM</t>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2 集中</t>
+  </si>
+  <si>
+    <t>DK1</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Z014</t>
+  </si>
+  <si>
+    <t>0123456789356</t>
+  </si>
+  <si>
+    <t>ceshi999</t>
   </si>
   <si>
     <t>012345</t>
   </si>
   <si>
-    <t>c92，849</t>
-  </si>
-  <si>
-    <t>Z014</t>
-  </si>
-  <si>
-    <t>0123456789456</t>
-  </si>
-  <si>
-    <t>ceshi555</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>v56，362</t>
+    <t>G234，151</t>
+  </si>
+  <si>
+    <t>Z015</t>
+  </si>
+  <si>
+    <t>0123456789369</t>
+  </si>
+  <si>
+    <t>ceshi888</t>
+  </si>
+  <si>
+    <t>B324，41</t>
+  </si>
+  <si>
+    <t>Z010</t>
+  </si>
+  <si>
+    <t>0123456789152</t>
+  </si>
+  <si>
+    <t>ceshi777</t>
+  </si>
+  <si>
+    <t>V132，1555</t>
   </si>
 </sst>
 </file>
@@ -733,16 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN3"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="66" width="23.44140625" customWidth="1"/>
+    <col min="1" max="67" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,405 +1061,617 @@
       <c r="BN1" t="s">
         <v>65</v>
       </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
         <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="AC2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="AD2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AG2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AH2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AN2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="AO2" t="s">
         <v>40</v>
       </c>
       <c r="AP2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AQ2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="AT2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AU2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="AV2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="AW2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AX2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="AY2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AZ2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BB2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BC2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>70</v>
       </c>
-      <c r="BF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>66</v>
-      </c>
       <c r="BK2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BL2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BM2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BN2" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
         <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="S3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
         <v>93</v>
       </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>79</v>
-      </c>
       <c r="AB3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="AD3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AG3" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AH3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="AI3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AN3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="AO3" t="s">
         <v>40</v>
       </c>
       <c r="AP3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI3" t="s">
+      <c r="AP4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK3" t="s">
+      <c r="BG4" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BH4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK4" t="s">
         <v>76</v>
       </c>
-      <c r="BN3" t="s">
-        <v>66</v>
+      <c r="BL4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
